--- a/biology/Médecine/Lasthénie_Thuillier-Landry/Lasthénie_Thuillier-Landry.xlsx
+++ b/biology/Médecine/Lasthénie_Thuillier-Landry/Lasthénie_Thuillier-Landry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lasth%C3%A9nie_Thuillier-Landry</t>
+          <t>Lasthénie_Thuillier-Landry</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lasthénie Thuillier-Landry, née le 17 avril 1879 à Ajaccio et décédée le 30 juillet 1962 à Calvi, est une médecin française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lasth%C3%A9nie_Thuillier-Landry</t>
+          <t>Lasthénie_Thuillier-Landry</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,19 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Lasthénie Landry est née dans une famille d’intellectuels radicaux socialistes apparentée aux Meuron et aux Bonaparte[1]. Sa mère Augustine Meuron (1844-1926) et son père Timothée Landry (1841-1912), juriste devenu ensuite président de chambre à la Cour d'appel de Paris, quittent la Corse pour Nîmes en 1883 avant de rejoindre la capitale en 1896[1]. Elle a 5 frères et sœurs : Josèphe, dite Seppa, (1869-1871), morte de tuberculose ; Eugène Landry (1872-1913), agrégé de français et d'italien, docteur ès lettres, maître de conférences à l'Institut national de Florence ; Adolphe Landry (1874-1956), normalien, fondateur de la démographie française, député de Corse, plusieurs fois ministre ; sa sœur Marguerite Pichon-Landry est une féministe qui fut la présidente du Conseil national des femmes françaises ; Marie Long-Landry médecin, première femme chef de clinique en France[1].
-Formation
-À la disparition de son mari, Lasthénie Thuillier-Landry passe son baccalauréat[2] puis s'inscrit à la faculté de médecine[3]. Elle se forme dans le service de psychiatrie de Gaston Deny à l’hôpital de la Salpêtrière et passe sa thèse sur le sujet suivant : Étude sur les délires à évolution démentielle précoce[3].
-Le 1er avril 1916, elle passe ensuite à la clinique des maladies mentales et de l'encéphale de l’hôpital Sainte-Anne et y devient la première femme cheffe de clinique[3]. Elle n'exerce pas, se concentrant sur les questions sociales[2].
-Engagement
-Au début du XXe siècle, les femmes médecins créent des associations de solidarité professionnelles[4] pour mieux se défendre[5]. Ainsi est fondée en 1923 l'Association Française des Femmes Médecins par Lasthénie Thuillier-Landry[5]. De 1929 1934[6], elle préside la Medical Women's International Association qui regroupe des associations à but semblable aux Etats-Unis, en France, et en Grande-Bretagne. Sous son égide, seize autres pays rejoignent cette association[5].
-Elle préside la section d’hygiène du Conseil national des femmes françaises dont sa sœur Marie Long-Landry est responsable[5].
-Pendant 20 ans, elle est vice-présidente de l'association française des femmes diplômées des universités[2].
-En mai 1936, elle est lauréate du prix Jean-Jacques-Berger de l’Académie des sciences morales et politiques pour son rôle de présidente d'une association de bienfaisance pour les plus démunis[3].
-À la sortie de la Seconde Guerre mondiale, elle dirige le volant social de la commission du ministère des Prisonniers, des Déportés et des Réfugiés[2].
-Lasthénie Thuillier-Landry est par ailleurs féministe[4].
-Elle meurt en apprenant la disparition de sa fille dans un incendie de forêt en Corse[2],[7].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lasthénie Landry est née dans une famille d’intellectuels radicaux socialistes apparentée aux Meuron et aux Bonaparte. Sa mère Augustine Meuron (1844-1926) et son père Timothée Landry (1841-1912), juriste devenu ensuite président de chambre à la Cour d'appel de Paris, quittent la Corse pour Nîmes en 1883 avant de rejoindre la capitale en 1896. Elle a 5 frères et sœurs : Josèphe, dite Seppa, (1869-1871), morte de tuberculose ; Eugène Landry (1872-1913), agrégé de français et d'italien, docteur ès lettres, maître de conférences à l'Institut national de Florence ; Adolphe Landry (1874-1956), normalien, fondateur de la démographie française, député de Corse, plusieurs fois ministre ; sa sœur Marguerite Pichon-Landry est une féministe qui fut la présidente du Conseil national des femmes françaises ; Marie Long-Landry médecin, première femme chef de clinique en France.
 </t>
         </is>
       </c>
@@ -536,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lasth%C3%A9nie_Thuillier-Landry</t>
+          <t>Lasthénie_Thuillier-Landry</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,13 +557,96 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la disparition de son mari, Lasthénie Thuillier-Landry passe son baccalauréat puis s'inscrit à la faculté de médecine. Elle se forme dans le service de psychiatrie de Gaston Deny à l’hôpital de la Salpêtrière et passe sa thèse sur le sujet suivant : Étude sur les délires à évolution démentielle précoce.
+Le 1er avril 1916, elle passe ensuite à la clinique des maladies mentales et de l'encéphale de l’hôpital Sainte-Anne et y devient la première femme cheffe de clinique. Elle n'exerce pas, se concentrant sur les questions sociales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lasthénie_Thuillier-Landry</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lasth%C3%A9nie_Thuillier-Landry</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début du XXe siècle, les femmes médecins créent des associations de solidarité professionnelles pour mieux se défendre. Ainsi est fondée en 1923 l'Association Française des Femmes Médecins par Lasthénie Thuillier-Landry. De 1929 1934, elle préside la Medical Women's International Association qui regroupe des associations à but semblable aux Etats-Unis, en France, et en Grande-Bretagne. Sous son égide, seize autres pays rejoignent cette association.
+Elle préside la section d’hygiène du Conseil national des femmes françaises dont sa sœur Marie Long-Landry est responsable.
+Pendant 20 ans, elle est vice-présidente de l'association française des femmes diplômées des universités.
+En mai 1936, elle est lauréate du prix Jean-Jacques-Berger de l’Académie des sciences morales et politiques pour son rôle de présidente d'une association de bienfaisance pour les plus démunis.
+À la sortie de la Seconde Guerre mondiale, elle dirige le volant social de la commission du ministère des Prisonniers, des Déportés et des Réfugiés.
+Lasthénie Thuillier-Landry est par ailleurs féministe.
+Elle meurt en apprenant la disparition de sa fille dans un incendie de forêt en Corse,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lasthénie_Thuillier-Landry</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lasth%C3%A9nie_Thuillier-Landry</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lasthénie Landry et Léon Alfred Thuillier, ingénieur des arts et manufactures, se marient le 12 novembre 1899[8],[9] à la mairie du 10e arrondissement, le député Henri Brisson est témoin du mariage ainsi que Dominique Forcioli[10]. Elle donne naissance à leur fille, Ella, le 31 octobre 1900. Son mari meurt de six mois plus tard[3] d'une fièvre typhoïde[2]. Ella Sauvegeot cofonde La Vie[3].
-Elle habite au 68, rue d'Assas[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lasthénie Landry et Léon Alfred Thuillier, ingénieur des arts et manufactures, se marient le 12 novembre 1899, à la mairie du 10e arrondissement, le député Henri Brisson est témoin du mariage ainsi que Dominique Forcioli. Elle donne naissance à leur fille, Ella, le 31 octobre 1900. Son mari meurt de six mois plus tard d'une fièvre typhoïde. Ella Sauvegeot cofonde La Vie.
+Elle habite au 68, rue d'Assas.
 </t>
         </is>
       </c>
